--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>86.81066267317041</v>
+        <v>89.54321732264776</v>
       </c>
       <c r="D2" t="n">
-        <v>19.30112197822805</v>
+        <v>15.0246166952287</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.91572153075796</v>
+        <v>85.01549948205611</v>
       </c>
       <c r="D3" t="n">
-        <v>18.66067007072995</v>
+        <v>17.97098309772874</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.60448920399502</v>
+        <v>87.43372598438043</v>
       </c>
       <c r="D4" t="n">
-        <v>17.26986240418812</v>
+        <v>15.39224059735338</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.77755874438051</v>
+        <v>87.12371883499756</v>
       </c>
       <c r="D5" t="n">
-        <v>20.20542649768285</v>
+        <v>17.59236027822045</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.44739982735524</v>
+        <v>84.97158778267098</v>
       </c>
       <c r="D6" t="n">
-        <v>20.50931842303247</v>
+        <v>18.63539816234973</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.43310735695418</v>
+        <v>87.29730788764535</v>
       </c>
       <c r="D7" t="n">
-        <v>17.66520969003074</v>
+        <v>16.19689665344614</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>80.21472776872274</v>
+        <v>83.08077754903621</v>
       </c>
       <c r="D8" t="n">
-        <v>18.60986794055819</v>
+        <v>18.35782804193266</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.03289123541896</v>
+        <v>83.53529944948964</v>
       </c>
       <c r="D9" t="n">
-        <v>19.15525073621912</v>
+        <v>16.58355995074683</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.20556638143886</v>
+        <v>79.72273486391239</v>
       </c>
       <c r="D10" t="n">
-        <v>17.14322664837998</v>
+        <v>18.5948915445641</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98416165255959</v>
+        <v>80.51235168455395</v>
       </c>
       <c r="D11" t="n">
-        <v>18.32238423342019</v>
+        <v>17.55142665449499</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.08310087345313</v>
+        <v>79.93536806261754</v>
       </c>
       <c r="D12" t="n">
-        <v>19.13617207840687</v>
+        <v>19.0791902291327</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.96949721710408</v>
+        <v>78.83608028639458</v>
       </c>
       <c r="D13" t="n">
-        <v>18.69422821091203</v>
+        <v>16.27141953785354</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.59393598950189</v>
+        <v>79.04230422847104</v>
       </c>
       <c r="D14" t="n">
-        <v>17.36662118635132</v>
+        <v>16.34645673092455</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.45030774384031</v>
+        <v>78.7588290529232</v>
       </c>
       <c r="D15" t="n">
-        <v>18.05156901268239</v>
+        <v>16.28388649380395</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.75017236358244</v>
+        <v>75.42373736212137</v>
       </c>
       <c r="D16" t="n">
-        <v>16.98503815442593</v>
+        <v>17.53564567033202</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.24596147020135</v>
+        <v>73.10672919925533</v>
       </c>
       <c r="D17" t="n">
-        <v>16.33649886534862</v>
+        <v>16.60310531602433</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>70.55420375778063</v>
+        <v>75.37279424367715</v>
       </c>
       <c r="D18" t="n">
-        <v>16.9456009316619</v>
+        <v>17.01966842739002</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.68587239532425</v>
+        <v>73.58557479373626</v>
       </c>
       <c r="D19" t="n">
-        <v>15.66942695490909</v>
+        <v>15.85789501038975</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01388095573132</v>
+        <v>73.4214004153209</v>
       </c>
       <c r="D20" t="n">
-        <v>18.42434974625134</v>
+        <v>16.94717210210812</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.68179008463409</v>
+        <v>72.22097582309154</v>
       </c>
       <c r="D21" t="n">
-        <v>17.04266395483612</v>
+        <v>16.35331176539622</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.35314055186858</v>
+        <v>68.31886363619238</v>
       </c>
       <c r="D22" t="n">
-        <v>17.42196772718558</v>
+        <v>18.929233008833</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.84964992392948</v>
+        <v>66.29429313234328</v>
       </c>
       <c r="D23" t="n">
-        <v>16.85043454206582</v>
+        <v>17.18854083894271</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.49024958953443</v>
+        <v>66.94096718323013</v>
       </c>
       <c r="D24" t="n">
-        <v>19.45917387148015</v>
+        <v>17.25946386375348</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.91996616747312</v>
+        <v>64.62713402669401</v>
       </c>
       <c r="D25" t="n">
-        <v>16.67161487125404</v>
+        <v>17.64528988761555</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.09444554342257</v>
+        <v>64.94568441750995</v>
       </c>
       <c r="D26" t="n">
-        <v>19.16199933488404</v>
+        <v>15.22794853414059</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>62.67689318236394</v>
+        <v>64.89010406792106</v>
       </c>
       <c r="D27" t="n">
-        <v>16.15434481085089</v>
+        <v>17.24071548997126</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.22495969598842</v>
+        <v>62.57975343091997</v>
       </c>
       <c r="D28" t="n">
-        <v>18.05157707012488</v>
+        <v>18.47474755852425</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.55525564732835</v>
+        <v>61.29187868666605</v>
       </c>
       <c r="D29" t="n">
-        <v>17.14241997630419</v>
+        <v>15.93902519746306</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.75417989665723</v>
+        <v>61.93775578604677</v>
       </c>
       <c r="D30" t="n">
-        <v>19.21745690875882</v>
+        <v>15.02715113733284</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.63849740853961</v>
+        <v>64.15459920736843</v>
       </c>
       <c r="D31" t="n">
-        <v>18.15286168766823</v>
+        <v>17.37669328860909</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>63.37954036030577</v>
+        <v>58.3706297292215</v>
       </c>
       <c r="D32" t="n">
-        <v>18.57539644170928</v>
+        <v>19.24450467645524</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.52441148160898</v>
+        <v>63.27546592115826</v>
       </c>
       <c r="D33" t="n">
-        <v>17.52072080068243</v>
+        <v>16.15820424517194</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.25324333571601</v>
+        <v>60.43537787544253</v>
       </c>
       <c r="D34" t="n">
-        <v>18.1038189598972</v>
+        <v>17.14683381161483</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.21841736582175</v>
+        <v>56.37545991694433</v>
       </c>
       <c r="D35" t="n">
-        <v>14.93677214372411</v>
+        <v>18.21725234996738</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>53.78496324193529</v>
+        <v>55.82510233664917</v>
       </c>
       <c r="D36" t="n">
-        <v>18.15395090173983</v>
+        <v>14.80768095452566</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.8971336915433</v>
+        <v>57.01914061704144</v>
       </c>
       <c r="D37" t="n">
-        <v>15.9796638092803</v>
+        <v>18.69114166867395</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.90975721758313</v>
+        <v>55.83355492530413</v>
       </c>
       <c r="D38" t="n">
-        <v>17.92026735726781</v>
+        <v>18.228266782319</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.48884005232236</v>
+        <v>51.33642808678802</v>
       </c>
       <c r="D39" t="n">
-        <v>18.45988882711958</v>
+        <v>16.36222976443879</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.77358853853762</v>
+        <v>53.70261794153757</v>
       </c>
       <c r="D40" t="n">
-        <v>18.1284862689349</v>
+        <v>16.89857378796295</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.81079728003159</v>
+        <v>48.86063921724239</v>
       </c>
       <c r="D41" t="n">
-        <v>18.65784364107262</v>
+        <v>17.24459620650188</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.38765958702831</v>
+        <v>49.42456863034232</v>
       </c>
       <c r="D42" t="n">
-        <v>18.89449577341951</v>
+        <v>17.59085601308434</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.12621213635699</v>
+        <v>50.47732004615163</v>
       </c>
       <c r="D43" t="n">
-        <v>16.19479017482474</v>
+        <v>16.43782769400974</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.62162075632138</v>
+        <v>44.36248163982339</v>
       </c>
       <c r="D44" t="n">
-        <v>17.84016577538819</v>
+        <v>18.09462916452173</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.95489818070042</v>
+        <v>47.3800181380569</v>
       </c>
       <c r="D45" t="n">
-        <v>19.43133171693782</v>
+        <v>18.47938450770106</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.93244213460672</v>
+        <v>47.46234603443217</v>
       </c>
       <c r="D46" t="n">
-        <v>19.53996365494296</v>
+        <v>18.8847705730112</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.92447906835176</v>
+        <v>41.89260241103829</v>
       </c>
       <c r="D47" t="n">
-        <v>16.90970364097511</v>
+        <v>17.16772879041124</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.01934063764335</v>
+        <v>42.04123744664096</v>
       </c>
       <c r="D48" t="n">
-        <v>18.35671806303638</v>
+        <v>16.91775758015477</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.17103149924681</v>
+        <v>42.14198616428514</v>
       </c>
       <c r="D49" t="n">
-        <v>15.6667975621088</v>
+        <v>18.7531089292878</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.44317629343687</v>
+        <v>39.22075496931632</v>
       </c>
       <c r="D50" t="n">
-        <v>17.46656047256559</v>
+        <v>17.13807701263702</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.55549642508448</v>
+        <v>40.62244077741124</v>
       </c>
       <c r="D51" t="n">
-        <v>17.29914004837214</v>
+        <v>17.79047977888684</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.58555371832234</v>
+        <v>41.59425945870858</v>
       </c>
       <c r="D52" t="n">
-        <v>19.99023025560796</v>
+        <v>16.93930102218472</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.56786190722855</v>
+        <v>38.99260995981185</v>
       </c>
       <c r="D53" t="n">
-        <v>18.30860609309859</v>
+        <v>17.86764295180065</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.91456013013225</v>
+        <v>33.13129048981506</v>
       </c>
       <c r="D54" t="n">
-        <v>18.22709416153344</v>
+        <v>19.04809756355492</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.37381945854165</v>
+        <v>36.87164739027546</v>
       </c>
       <c r="D55" t="n">
-        <v>17.73608683591943</v>
+        <v>18.26102187059236</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.1739975855932</v>
+        <v>32.14045312610544</v>
       </c>
       <c r="D56" t="n">
-        <v>18.12848961444118</v>
+        <v>19.06438385449284</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.30010522937076</v>
+        <v>35.48033655514686</v>
       </c>
       <c r="D57" t="n">
-        <v>18.61986268329446</v>
+        <v>17.71900174830792</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.94349334502206</v>
+        <v>32.90043556591451</v>
       </c>
       <c r="D58" t="n">
-        <v>18.74255686969105</v>
+        <v>19.80366969589753</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.26976095457036</v>
+        <v>32.2217940349841</v>
       </c>
       <c r="D59" t="n">
-        <v>20.4243359794917</v>
+        <v>19.30751119106836</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.56036816726128</v>
+        <v>33.15301347499341</v>
       </c>
       <c r="D60" t="n">
-        <v>17.78094505886521</v>
+        <v>16.63134072113019</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>27.32170968344069</v>
+        <v>31.27636471433252</v>
       </c>
       <c r="D61" t="n">
-        <v>19.3320760957775</v>
+        <v>18.59222319946841</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.7044111402133</v>
+        <v>29.02382893208158</v>
       </c>
       <c r="D62" t="n">
-        <v>19.27803487152761</v>
+        <v>19.6846331751713</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.85353935000158</v>
+        <v>30.71502086996484</v>
       </c>
       <c r="D63" t="n">
-        <v>19.0348143625337</v>
+        <v>19.5387230776665</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>33.75136997162051</v>
+        <v>28.2301214174537</v>
       </c>
       <c r="D64" t="n">
-        <v>18.63701772409427</v>
+        <v>17.08401010593595</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.05118768171318</v>
+        <v>23.69764043464696</v>
       </c>
       <c r="D65" t="n">
-        <v>15.8157911059867</v>
+        <v>16.07685691916149</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.25469292647189</v>
+        <v>26.62778645982431</v>
       </c>
       <c r="D66" t="n">
-        <v>19.53305745855237</v>
+        <v>17.49212937772868</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.80212875785412</v>
+        <v>24.31462306036339</v>
       </c>
       <c r="D67" t="n">
-        <v>17.26861550293035</v>
+        <v>15.93228144745071</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.45772635269789</v>
+        <v>24.64104027577968</v>
       </c>
       <c r="D68" t="n">
-        <v>18.53160417369529</v>
+        <v>17.42865690635478</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.11432651158488</v>
+        <v>19.36185514666988</v>
       </c>
       <c r="D69" t="n">
-        <v>16.77961530430885</v>
+        <v>20.68186068594433</v>
       </c>
     </row>
   </sheetData>
